--- a/pred_ohlcv/54_21/2019-11-24 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-24 VET ohlcv.xlsx
@@ -2420,7 +2420,7 @@
         <v>-1946480.67339187</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-2005945.72639187</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2005945.72639187</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-2867568.02139187</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-2707370.89949187</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-2707370.89949187</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1443949.12429187</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1446674.05509187</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1380814.73669187</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1375864.26239187</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1375864.26239187</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1487863.827691871</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1456092.08129187</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1355999.36959187</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1748210.267885807</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1843733.291385806</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-530408.6383858062</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-537588.6383858062</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-537588.6383858062</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-537588.6383858062</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-537588.6383858062</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-535519.6399756314</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-220680.2005756314</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-143218.0342756314</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-143218.0342756314</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>133837.8105243686</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>138041.8592243686</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>188041.8592243686</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1141063.405024369</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>2086965.554224369</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1993572.769124369</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1899752.730824369</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>3301731.794824368</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>3301731.794824368</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>3296650.855724368</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>3251647.214024368</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>3126445.723624368</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>6300879.408324368</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>5937299.669324368</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>5865248.118024368</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>5865323.118024368</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>5709170.783924368</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>5709370.783924368</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>5386010.084024368</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>5386232.187724368</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>5386488.870824368</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>5385081.603424367</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>5392802.862224367</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>5392802.862224367</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>5392802.862224367</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>5411365.862224367</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>5361365.862224367</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>5284719.503424368</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>5308188.387124368</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>5312277.659824368</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>5363128.315024368</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>5363128.315024368</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>5356648.315024368</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>5356648.315024368</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>4749909.951024367</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>4749508.129424367</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>4561303.151124367</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>5010630.285224368</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>5010630.285224368</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>4932333.172624368</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>4904739.955024368</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>4764671.820824367</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>4764671.820824367</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>4764753.479824367</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>5172536.958124367</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>5172616.617124367</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>5319739.113924366</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>5319739.113924366</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>5320105.465524366</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>5320105.465524366</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>5431739.738324367</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>5440606.239524366</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>5427678.414824367</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>5369177.999724367</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>5253632.050224367</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>5253632.050224367</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>5333659.752724366</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>4422053.998524366</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>4424530.611124366</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>4424530.611124366</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>4424530.611124366</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>4475381.944324366</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>4475381.944324366</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>4477241.744524366</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>4477241.744524366</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>4477241.744524366</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>4476841.744524366</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>4476841.744524366</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>4476841.744524366</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>4476841.744524366</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>4468268.695524367</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>4475501.437524366</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>4435501.437524366</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>4328356.464724367</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>3940632.394524367</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>3943148.830224366</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>3978711.896124366</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>3978711.896124366</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>3978711.896124366</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>3347138.972324366</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>2748718.495124366</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>2755990.481624366</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>2755990.481624366</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>2755990.481624366</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>2710997.300324366</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>2710997.300324366</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>2710997.300324366</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-24 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-24 VET ohlcv.xlsx
@@ -2420,7 +2420,7 @@
         <v>-1946480.67339187</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-2005945.72639187</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2005945.72639187</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-2707370.89949187</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-2707370.89949187</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-2715599.30519187</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-2715599.30519187</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-2287595.08349187</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2189349.16739187</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-2191381.75119187</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-2191381.75119187</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1443069.92339187</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1449674.05509187</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1446674.05509187</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1446674.05509187</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1380814.73669187</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1375864.26239187</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1456912.39409187</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1487863.827691871</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1456092.08129187</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1355999.36959187</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1748210.267885807</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1843733.291385806</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-530408.6383858062</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-537588.6383858062</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-537588.6383858062</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-537588.6383858062</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-537588.6383858062</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-535519.6399756314</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-220680.2005756314</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-143218.0342756314</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-143218.0342756314</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>133837.8105243686</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>138041.8592243686</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>188041.8592243686</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1141063.405024369</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>2086965.554224369</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1993572.769124369</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>1899752.730824369</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>3301731.794824368</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>3301731.794824368</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>3296650.855724368</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>3251647.214024368</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>3126445.723624368</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>6091084.135124369</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>6153692.335624369</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>6105241.225024369</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>6102620.208524369</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>6297515.023224369</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>6297515.023224369</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>6300879.408324368</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>5937299.669324368</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>5865248.118024368</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>5865323.118024368</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>5709170.783924368</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>5709370.783924368</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>5386010.084024368</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>5386232.187724368</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>5386488.870824368</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>5385081.603424367</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>5392802.862224367</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>5392802.862224367</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>5411365.862224367</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>5361365.862224367</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>5284719.503424368</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>5308188.387124368</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>5312277.659824368</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>5363128.315024368</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>5363128.315024368</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>5356648.315024368</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>5356648.315024368</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>4749909.951024367</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>4749508.129424367</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>4764753.479824367</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>5172536.958124367</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>5172616.617124367</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>5319739.113924366</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>5319739.113924366</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>5320105.465524366</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>5320105.465524366</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>5431739.738324367</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>5440606.239524366</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>5427678.414824367</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>5369177.999724367</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>5253632.050224367</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>5253632.050224367</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>5333659.752724366</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>4422053.998524366</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>4424530.611124366</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>4424530.611124366</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>4424530.611124366</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>4475381.944324366</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>4475381.944324366</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>4477241.744524366</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>4477241.744524366</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>4476841.744524366</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>4476841.744524366</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>4476841.744524366</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>4476841.744524366</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>4468268.695524367</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>4475501.437524366</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>4435501.437524366</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>4328356.464724367</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>3940632.394524367</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>3943148.830224366</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>3978711.896124366</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>3978711.896124366</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>3978711.896124366</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>3347138.972324366</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>2748718.495124366</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>2755990.481624366</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>3149914.087510331</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>3145350.960410331</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>3145350.960410331</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>3145350.960410331</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>2931592.005410331</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
